--- a/TestExecution+Results.xlsx
+++ b/TestExecution+Results.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd13000277f5daa/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd13000277f5daa/Desktop/TestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F4A91F-E328-4B0D-B6D5-E4AF152F523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{D5F4A91F-E328-4B0D-B6D5-E4AF152F523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B70E4CFA-A792-4E19-858F-E68CA5E57F47}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{562AF039-3D31-47CB-9F74-55AFA8FCD3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{562AF039-3D31-47CB-9F74-55AFA8FCD3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="test scenario" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="6" r:id="rId2"/>
     <sheet name="login" sheetId="7" r:id="rId3"/>
     <sheet name="logout" sheetId="8" r:id="rId4"/>
-    <sheet name="forget password" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="360">
   <si>
     <t>P2</t>
   </si>
@@ -1348,437 +1347,37 @@
     <t>1. Logout functionality is working correctly in all the supported environments</t>
   </si>
   <si>
-    <t>TC_FP_001</t>
-  </si>
-  <si>
-    <t>Validate User is able to reset the password</t>
-  </si>
-  <si>
-    <t>1. Open the Application URL and navigate to Login Page
-2. An existing Account is required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on 'Forgotten Password' link from Login page (Validate ER-1)
-2. Enter the email address of an existing account for which you have forgot the password 
-3. Click on 'Continue' button (Validate ER-2)
-4. Check the registered email address for which the password got reset (Validate ER-3)
-5. Click on the link for resseting the password from the received email body (Validate ER-4)
-6. Enter new password into the 'Password' and 'Confirm' fields
-7. Click on 'Continue' button (Validate ER-5)
-8. Enter the email address into the E-Mail address field and the new resetted password into the 'Password' field 
-9. Click on 'Login' button (Validate ER-6)
-</t>
-  </si>
-  <si>
-    <t>1. User should be taken to 'Forgotten Password' page
-2. Success message with text - 'An email with a confirmation link has been sent your email address.' should be displayed in green color
-3. Validate that an email is received regarding resseting of the password to the registered email address 
-4. User should be taken 'Reset your Password' page
-5. Success message with text - 'Success: Your password has been successfully updated.' should be displayed in green color and User should be navigated to 'Login' page
-6. User should be able to login with the new password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Application Email system is not working </t>
-  </si>
-  <si>
-    <t>Unable to test as the application email system in not working .</t>
-  </si>
-  <si>
-    <t>TC_FP_002</t>
-  </si>
-  <si>
-    <t>Validate an email is sent with the proper details on resetting the password</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' link from Login page 
-2. Enter the email address of an existing account for which you have forgot the password 
-3. Click on 'Continue' button
-4. Check the registered email address for which the password got reset (Validate ER-1 and ER-2)</t>
-  </si>
-  <si>
-    <t>1. An email should be recevied by the registered email address with the details of resetting the password.
-2. Email should contain proper Subject, Body, from address and the link for resetting the password</t>
-  </si>
-  <si>
-    <t>Unable to test as the application email system in not working.</t>
-  </si>
-  <si>
-    <t>TC_FP_003</t>
-  </si>
-  <si>
-    <t>Validate logging into the Application with the old password after resetting it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. An existing Account is required and we have reset the password
-2. Open the Application URL and navigate to Login Page
-</t>
-  </si>
-  <si>
-    <t>1. Enter registered email address into the 'E-Mail address' field
-2. Enter new password into the 'Password' field
-3. Click on 'Login' button (Validate ER-1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. User should not be able to login with old password </t>
-  </si>
-  <si>
-    <t>TC_FP_004</t>
-  </si>
-  <si>
-    <t>Validate logging into the Application with the old password when you have initiated the resetting password process and have not reset the password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the Application URL and navigate to Login Page
-1. An existing Account is required 
-</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' link from Login page
-2. Enter the email address of an existing account for which you have forgot the password 
-3. Click on 'Continue' button
-4. Enter registered email address into the 'E-mail Address' field
-5. Enter old password into the 'Password' field
-6. Click on 'Login' button</t>
-  </si>
-  <si>
-    <t>1. User should be able to login</t>
-  </si>
-  <si>
-    <t>TC_FP_005</t>
-  </si>
-  <si>
-    <t>Validate resetting the password for a non-registered account</t>
-  </si>
-  <si>
-    <t>1. Open the Application URL and navigate to Login Page</t>
-  </si>
-  <si>
-    <t>1.Click on 'Forgotten Password' link from Login page
-2. Enter an email address for which the Account doesn't exist in the application
-3. Click on 'Continue' button</t>
-  </si>
-  <si>
-    <t>1. Success message with text - 'An email with a confirmation link has been sent your email address.' should be displayed in green color</t>
-  </si>
-  <si>
-    <t>1. Success message with text - 'An email with a confirmation link has been sent your email address.' is displayed in green color</t>
-  </si>
-  <si>
-    <t>TC_FP_006</t>
-  </si>
-  <si>
-    <t>Validate how many times the User is able to reset the password using the reset link sent over email</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' link from Login page
-2. Enter the email address of an existing account for which you have forgot the password 
-3. Click on 'Continue' button
-4. Check the registered email address for which the password got reset 
-5. Click on the link for resseting the password from the received email body
-6. Enter new password into the 'Password' and 'Confirm' fields
-7. Click on 'Continue' button 
-8. Repeat steps 5 to 7  for 2 to 3 times (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. User should be allowed to use the link sent in the email for resetting the password only once</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unable to test as the application email system in not working. </t>
-  </si>
-  <si>
-    <t>TC_FP_007</t>
-  </si>
-  <si>
-    <t>Validate the User has given the same password into the 'Password' and 'Confirm' fields of the 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' link from Login page
-2. Enter the email address of an existing account for which you have forgot the password 
-3. Click on 'Continue' button
-4. Check the registered email address for which the password got reset 
-5. Click on the link for resseting the password from the received email body
-6. Enter a password into the 'Password' field 
-7. Enter a different password into the 'Confirm' fields
-8. Click on 'Continue' button (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. A field level warning message with text - 'Password and password confirmation do not match!' should be displayed under 'confirm' field</t>
-  </si>
-  <si>
-    <t>TC_FP_008</t>
-  </si>
-  <si>
-    <t>Validate the placeholders are displayed in the 'Password' and 'Confirm' fields of 'Reset your password' page</t>
-  </si>
-  <si>
-    <t>1. An existing Account is required, we have reset the password for this account and a reset password email is sent to the registered email address</t>
-  </si>
-  <si>
-    <t>1. Click on the reset password link available in the email 
-2. Check whether the 'Password' and 'Confirm' fields in the 'Reset your Password' page (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. Proper placeholder texts are displayed inside the 'Password' and 'Confirm' fields of the 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>TC_FP_009</t>
-  </si>
-  <si>
-    <t>Validate resetting the password without giving the new password in the 'Password' and 'Confirm' fields of 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on the reset password link available in the email 
-2. Don't enter any password into the 'Password' and 'Confirm' fields of the 'Reset your Password' page
-3. Click on 'Continue' button (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. Field level warning message with text - 'Password must be between 4 and 20 characters!' should be displayed for 'Password' field</t>
-  </si>
-  <si>
-    <t>TC_FP_010</t>
-  </si>
-  <si>
-    <t>Validate clicking  'Back' button on the 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on the reset password link available in the email 
-2. Click on 'Back' button on the 'Reset your Password' page (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>TC_FP_011</t>
-  </si>
-  <si>
-    <t>Validate 'Right Column' options are displayed in the 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on the reset password link available in the email 
-2. Check for 'Right Column' options (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. 'Right Columns' options should be displayed in the 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>TC_FP_012</t>
-  </si>
-  <si>
-    <t>Validate the Breadcrumb of the 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on the reset password link available in the email 
-2. Check the Breadcrumb (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. A proper working Breadcrumb should be displayed on the 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>TC_FP_013</t>
-  </si>
-  <si>
-    <t>Validate Page Heading, Page URL and Page Title of the 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on the reset password link available in the email 
-2. Check the Page Heading, Page URL and Page Title (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. A proper Page Heading, Page URL and Page Title should be displayed for 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>TC_FP_014</t>
-  </si>
-  <si>
-    <t>Validate the UI of the 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on the reset password link available in the email 
-2. Check the UI of the Page (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. Proper UI adhering to the UI checklist should be displayed for 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>TC_FP_015</t>
-  </si>
-  <si>
-    <t>Validate reseting the Password without providing the registered email address</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' link from Login page
-2. Don't enter anything into the 'E-Mail Address' field
-3. Click on 'Continue' button (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. Field level warning message with text - E-Mail must be between 4 and 20 characters!' should be displayed for 'E-Mail Address' field</t>
-  </si>
-  <si>
-    <t>1. Field level warning message with text - E-Mail must be between 4 and 20 characters!' is displayed for 'E-Mail Address' field</t>
-  </si>
-  <si>
-    <t>TC_FP_016</t>
-  </si>
-  <si>
-    <t>Verifty Placehold text is displayed in the 'E-Mail Address' field of 'Forgotten Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' link from Login page
-2. Check  Placeholder text for 'E-Mail' Address field (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. Proper Placeholder text is displayed inside the 'E-Mail Address' fields  of the 'Forgotten Password' page</t>
-  </si>
-  <si>
-    <t>TC_FP_017</t>
-  </si>
-  <si>
-    <t>Validate 'E-Mail Address' fied on the 'Forgotten Password' page is marked as mandatory</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' link from Login page
-2. Check  the 'E-Mail' Address field (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. 'E-Mail' Address field in the 'Forgotten Password' page should be marked as mandatory</t>
-  </si>
-  <si>
-    <t>1. 'E-Mail' Address field in the 'Forgotten Password' page is marked as mandatory</t>
-  </si>
-  <si>
-    <t>TC_FP_018</t>
-  </si>
-  <si>
-    <t>Validate entering invalid format email address into the 'E-Mail Address' field of 'Forgotten Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' link from Login page
-2. Enter any invalid formatted email address into the 'E-Mail Address' field (Validate ER-1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try all below invalid email address formats:
-1) pavanol
-2) pavanol@
-3) pavanol@gmail
-4) pavanol@gmail.
-</t>
-  </si>
-  <si>
-    <t>1. Field level warning message informing the User to provide a valid formatted email address should be displayed</t>
-  </si>
-  <si>
-    <t>1. Field level warning message informing the User to provide a valid formatted email address is displayed</t>
-  </si>
-  <si>
-    <t>TC_FP_019</t>
-  </si>
-  <si>
-    <t>Validate Back button on the 'Forgotten Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' link from Login page
-2. Click on 'Back' button  (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. User should be taken to 'Login' page</t>
-  </si>
-  <si>
-    <t>1. User is taken to 'Login' page</t>
-  </si>
-  <si>
-    <t>TC_FP_020</t>
-  </si>
-  <si>
-    <t>Validate navigating to 'Forgotten Password' page from 'Right Column' options</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' option from the 'Right Column'  (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. User should be navigated to 'Forgotten Password page</t>
-  </si>
-  <si>
-    <t>1. User is navigated to 'Forgotten Password page</t>
-  </si>
-  <si>
-    <t>TC_FP_021</t>
-  </si>
-  <si>
-    <t>Validate Breadcrumb of the 'Forgotten Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' link from Login page
-2. Check the working of Breadcrumb (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. A proper working Breadcrumb should be displayed on the 'Forgotten Password' page</t>
-  </si>
-  <si>
-    <t>1. A proper working Breadcrumb is  displayed on the 'Forgotten Password' page</t>
-  </si>
-  <si>
-    <t>TC_FP_022</t>
-  </si>
-  <si>
-    <t>Validate the email address provided in the 'E-Mail Address' field of 'Login' page, need to be carry forwarded to the 'Forgotten Password' page</t>
-  </si>
-  <si>
-    <t>1. Enter email address into the 'E-Mail Address' field of the Login page
-2. Click on 'Forgotten Password' link (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. User should be taken to 'Forgotten Password' page and email address given in the Login page should be displayed in this page by default [Usability point of view]</t>
-  </si>
-  <si>
-    <t>1. User is taken to 'Forgotten Password' page and email address given in the Login page is not displayed in this page by default [Usability point of view]</t>
-  </si>
-  <si>
-    <t>OPENCART-BUG-12</t>
-  </si>
-  <si>
-    <t>TC_FP_023</t>
-  </si>
-  <si>
-    <t>Validate the UI of the 'Forgotten Password' page</t>
-  </si>
-  <si>
-    <t>1. Click on 'Forgotten Password' link from Login page
-2. Check the UI of the Page (Validate ER-1)</t>
-  </si>
-  <si>
-    <t>1. Proper UI adhering to the UI checklist should be displayed for 'Forgotten Password' page</t>
-  </si>
-  <si>
-    <t>1. Proper UI adhering to the UI checklist is displayed for 'Forgotten Password' page</t>
-  </si>
-  <si>
-    <t>TC_FP_024</t>
-  </si>
-  <si>
-    <t>Validate the Password entered into the 'Password' and 'Confirm' fields of 'Reset your Password' page is toggled to hide its visibility</t>
-  </si>
-  <si>
-    <t>1. An existing Account is required, we have reset the D1:D25password for this account and a reset password email is sent to the registered email address</t>
-  </si>
-  <si>
-    <t>1. Click on the reset password link available in the email 
-2. Enter any text into 'Password' and 'Confirm' fields on the 'Reset your Password' page</t>
-  </si>
-  <si>
-    <t>1. Text entered into the 'Password' and 'Confirmed' fields should be toggled to hide its visibility (i.e. * or . Symbols should be displayed)</t>
-  </si>
-  <si>
-    <t>TC_FP_025</t>
-  </si>
-  <si>
-    <t>Validate the Password Reset functionality in all the supported environments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the Application URL and navigate to Login Page
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on 'Forgotten Password' link from Login page </t>
-  </si>
-  <si>
-    <t>1. Reset Password functionality should work correctly in all the supported environments</t>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Reference Document</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Creation Date</t>
+  </si>
+  <si>
+    <t>DD-MM-YYYY</t>
+  </si>
+  <si>
+    <t>Approval Date</t>
+  </si>
+  <si>
+    <t>Mamun</t>
+  </si>
+  <si>
+    <t>Opencart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opencart </t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1917,12 +1516,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1949,9 +1561,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1974,10 +1583,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1985,287 +1596,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2660,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352FEA6E-64F1-47A1-B2D6-397D1A25948A}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2676,97 +2007,164 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E9" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E10" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E11" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E12" s="3">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" location="Register!A1" display="Register!A1" xr:uid="{5EAE5BC9-593E-435A-8824-C462B2E0FD41}"/>
-    <hyperlink ref="A4" location="Login!A1" display="Login!A1" xr:uid="{E54E98E1-255A-4C43-AE2B-48ECF9FD6A49}"/>
-    <hyperlink ref="A5" location="Logout!A1" display="Logout!A1" xr:uid="{D0723D54-2F29-4B6A-926A-F2524DE113CA}"/>
-    <hyperlink ref="A6" location="'forget password'!A1" display="'forget password'!A1" xr:uid="{93443FB9-76AD-4D63-8E41-A54BD7322731}"/>
+    <hyperlink ref="A12" location="'forget password'!A1" display="'forget password'!A1" xr:uid="{93443FB9-76AD-4D63-8E41-A54BD7322731}"/>
+    <hyperlink ref="A11" location="Logout!A1" display="Logout!A1" xr:uid="{D0723D54-2F29-4B6A-926A-F2524DE113CA}"/>
+    <hyperlink ref="A10" location="Login!A1" display="Login!A1" xr:uid="{E54E98E1-255A-4C43-AE2B-48ECF9FD6A49}"/>
+    <hyperlink ref="A9" location="Register!A1" display="Register!A1" xr:uid="{5EAE5BC9-593E-435A-8824-C462B2E0FD41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2776,7 +2174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71147837-742E-416C-A5E6-B073CBABCA88}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" zoomScale="83" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2829,49 +2227,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="252" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="3"/>
@@ -2880,31 +2278,31 @@
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>43</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -2915,31 +2313,31 @@
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K5" s="3"/>
@@ -2948,31 +2346,31 @@
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="3"/>
@@ -2981,31 +2379,31 @@
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>58</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="3"/>
@@ -3014,31 +2412,31 @@
       <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K8" s="3"/>
@@ -3047,31 +2445,31 @@
       <c r="A9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>68</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="3"/>
@@ -3080,31 +2478,31 @@
       <c r="A10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K10" s="3"/>
@@ -3113,31 +2511,31 @@
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="3"/>
@@ -3146,31 +2544,31 @@
       <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K12" s="3"/>
@@ -3179,31 +2577,31 @@
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>89</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>43</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -3214,31 +2612,31 @@
       <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>95</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K14" s="3"/>
@@ -3247,31 +2645,31 @@
       <c r="A15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>98</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K15" s="3"/>
@@ -3280,31 +2678,31 @@
       <c r="A16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>103</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>105</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>43</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -3315,31 +2713,31 @@
       <c r="A17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>109</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>111</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K17" s="3"/>
@@ -3348,31 +2746,31 @@
       <c r="A18" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>114</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>116</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="13" t="s">
         <v>43</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -3383,31 +2781,31 @@
       <c r="A19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>12345</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>122</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>43</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -3418,31 +2816,31 @@
       <c r="A20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>128</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K20" s="3"/>
@@ -3451,31 +2849,31 @@
       <c r="A21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>131</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>133</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="13" t="s">
         <v>43</v>
       </c>
       <c r="K21" s="3" t="s">
@@ -3486,31 +2884,31 @@
       <c r="A22" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="16" t="s">
         <v>139</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K22" s="3"/>
@@ -3519,31 +2917,31 @@
       <c r="A23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>142</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>144</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K23" s="3"/>
@@ -3552,31 +2950,31 @@
       <c r="A24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>147</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>149</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K24" s="3"/>
@@ -3585,31 +2983,31 @@
       <c r="A25" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>152</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>154</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K25" s="3"/>
@@ -3618,31 +3016,31 @@
       <c r="A26" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>157</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>159</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K26" s="3"/>
@@ -3651,31 +3049,31 @@
       <c r="A27" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>162</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>164</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K27" s="3"/>
@@ -3684,31 +3082,31 @@
       <c r="A28" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>162</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>168</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K28" s="3"/>
@@ -3717,31 +3115,31 @@
       <c r="A29" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>162</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="16" t="s">
         <v>172</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K29" s="3"/>
@@ -3751,16 +3149,16 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J29">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3780,7 +3178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A998D335-9573-4CDB-81EC-9E1ED6916CD7}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3833,802 +3233,802 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>179</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>186</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>186</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>197</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>186</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" ht="234" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>205</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="378" x14ac:dyDescent="0.25">
+      <c r="J9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>210</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="216" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="252" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>227</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="342" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>244</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>249</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="396" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="252" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>271</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>276</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" ht="324" x14ac:dyDescent="0.25">
+      <c r="J22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>210</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" ht="324" x14ac:dyDescent="0.25">
+      <c r="J23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>210</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="1:11" ht="324" x14ac:dyDescent="0.25">
+      <c r="J24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>210</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="18"/>
+      <c r="J25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J25">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4648,7 +4048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B76910-F18F-41E8-B783-1EE5AFDEC554}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4701,252 +4101,252 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="378" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>295</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="378" x14ac:dyDescent="0.25">
+      <c r="J3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>295</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="234" x14ac:dyDescent="0.25">
+      <c r="J4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>304</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="18"/>
+      <c r="J5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>309</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="108" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>315</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" ht="198" x14ac:dyDescent="0.25">
+      <c r="J7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>321</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" ht="396" x14ac:dyDescent="0.25">
+      <c r="J8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>327</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="17" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4954,1099 +4354,139 @@
       <c r="A10" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>333</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="18"/>
+      <c r="J10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>339</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+      <c r="J11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>342</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>344</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="J12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>342</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>348</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="18"/>
+      <c r="J13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J13">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NOT TESTED">
-      <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="BLOCKED">
-      <formula>NOT(ISERROR(SEARCH("BLOCKED",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",J3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J13" xr:uid="{870F1F71-D4FE-4C68-9134-083B0343A09C}">
-      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A2:B2" location="'Test Scenarios'!A10" display="&lt;&lt; Test Scenarios" xr:uid="{D15DE8F8-D0B3-404B-8676-07AECD2CC5AB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195DEC86-9BF1-4C23-A0F5-6D4BC00A4634}">
-  <dimension ref="A1:K27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="324" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="288" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="288" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="306" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="306" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="306" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="306" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="306" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="306" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="306" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="288" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" ht="234" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" ht="234" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" ht="324" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" ht="342" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="216" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" ht="324" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J3:J27">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH("NOT TESTED",J3)))</formula>
     </cfRule>
@@ -6061,12 +4501,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J27" xr:uid="{23F88513-5F59-4E14-A39B-F41F5D0750AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J13" xr:uid="{870F1F71-D4FE-4C68-9134-083B0343A09C}">
       <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2:B2" location="'test scenario'!A1" display="&lt;&lt; Test Scenarios" xr:uid="{25669071-0CA1-4B37-B480-8D35D80C099A}"/>
+    <hyperlink ref="A2:B2" location="'Test Scenarios'!A10" display="&lt;&lt; Test Scenarios" xr:uid="{D15DE8F8-D0B3-404B-8676-07AECD2CC5AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestExecution+Results.xlsx
+++ b/TestExecution+Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cd13000277f5daa/Desktop/TestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D5F4A91F-E328-4B0D-B6D5-E4AF152F523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B70E4CFA-A792-4E19-858F-E68CA5E57F47}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{D5F4A91F-E328-4B0D-B6D5-E4AF152F523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E85637A-D163-4132-9CE3-F15F6B4A4611}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{562AF039-3D31-47CB-9F74-55AFA8FCD3EA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="357">
   <si>
     <t>P2</t>
   </si>
@@ -40,13 +40,6 @@
   </si>
   <si>
     <t>P1</t>
-  </si>
-  <si>
-    <t>Validate the working of Forgot Password functionality</t>
-  </si>
-  <si>
-    <t>(TS_004)
-Forgot Passsword</t>
   </si>
   <si>
     <t>P0</t>
@@ -1215,9 +1208,6 @@
     <t>1. User should not get logged in</t>
   </si>
   <si>
-    <t>1. User is getting logged in</t>
-  </si>
-  <si>
     <t>TC_LG_005</t>
   </si>
   <si>
@@ -1278,9 +1268,6 @@
     <t>1. User is not getting logged out</t>
   </si>
   <si>
-    <t>OPENCART-BUG-11</t>
-  </si>
-  <si>
     <t>TC_LG_008</t>
   </si>
   <si>
@@ -1368,9 +1355,6 @@
     <t>Approval Date</t>
   </si>
   <si>
-    <t>Mamun</t>
-  </si>
-  <si>
     <t>Opencart</t>
   </si>
   <si>
@@ -1378,6 +1362,12 @@
   </si>
   <si>
     <t xml:space="preserve">Opencart </t>
+  </si>
+  <si>
+    <t>1. User is not getting logged in</t>
+  </si>
+  <si>
+    <t>MAMUN</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1576,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1991,10 +1981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352FEA6E-64F1-47A1-B2D6-397D1A25948A}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2009,92 +1999,92 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C1" s="20"/>
+        <v>345</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" s="20"/>
+        <v>346</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" s="20"/>
+        <v>349</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" s="20"/>
+        <v>351</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>27</v>
@@ -2102,16 +2092,16 @@
     </row>
     <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>23</v>
@@ -2119,36 +2109,19 @@
     </row>
     <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2161,7 +2134,6 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A12" location="'forget password'!A1" display="'forget password'!A1" xr:uid="{93443FB9-76AD-4D63-8E41-A54BD7322731}"/>
     <hyperlink ref="A11" location="Logout!A1" display="Logout!A1" xr:uid="{D0723D54-2F29-4B6A-926A-F2524DE113CA}"/>
     <hyperlink ref="A10" location="Login!A1" display="Login!A1" xr:uid="{E54E98E1-255A-4C43-AE2B-48ECF9FD6A49}"/>
     <hyperlink ref="A9" location="Register!A1" display="Register!A1" xr:uid="{5EAE5BC9-593E-435A-8824-C462B2E0FD41}"/>
@@ -2174,7 +2146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71147837-742E-416C-A5E6-B073CBABCA88}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="83" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2193,42 +2167,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="10"/>
@@ -2243,904 +2217,904 @@
     </row>
     <row r="3" spans="1:11" ht="252" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="306" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="252" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="324" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="324" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="252" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="H9" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="288" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="216" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="252" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="F12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="H12" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="234" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="F13" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="H13" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="234" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="H15" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="216" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="198" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="342" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="F19" s="11">
         <v>12345</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="198" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="288" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="H21" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="108" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="H22" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="234" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="198" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="H24" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="234" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="H26" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="108" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="F27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="H29" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -3178,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A998D335-9573-4CDB-81EC-9E1ED6916CD7}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A19" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,42 +3173,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="10"/>
@@ -3249,768 +3223,766 @@
     </row>
     <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>197</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="234" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>212</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="216" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="F11" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="252" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="F12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>223</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>0</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="F13" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="342" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="F14" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="H15" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>0</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="162" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>252</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="396" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="F18" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>0</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" ht="252" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="F19" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="288" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="F20" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>267</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="H21" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>273</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>276</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>279</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>281</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="H24" s="12" t="s">
         <v>283</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>285</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>287</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>289</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25" s="17"/>
     </row>
@@ -4048,7 +4020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B76910-F18F-41E8-B783-1EE5AFDEC554}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="65" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4067,42 +4041,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="10"/>
@@ -4117,368 +4091,366 @@
     </row>
     <row r="3" spans="1:11" ht="378" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>295</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>299</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="F5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="F6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>308</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>252</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="108" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="F7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>315</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="F8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>318</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="F9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>327</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="234" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>329</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>333</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="198" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>340</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>344</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13" s="17"/>
     </row>
